--- a/doc/datasets.xlsx
+++ b/doc/datasets.xlsx
@@ -12,9 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13658"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart3" sheetId="5" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Facebook" sheetId="1" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="4" r:id="rId4"/>
+    <sheet name="k vs time" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,22 +115,22 @@
     <t># CC</t>
   </si>
   <si>
-    <t>omega time</t>
-  </si>
-  <si>
     <t>igraph</t>
-  </si>
-  <si>
-    <t>omega - 1 time</t>
   </si>
   <si>
     <t>CliqueSolver</t>
   </si>
   <si>
-    <t>*</t>
+    <t>ω time</t>
   </si>
   <si>
-    <t>&gt;30 minutes</t>
+    <t>ω conflicts</t>
+  </si>
+  <si>
+    <t>(ω + 1) time</t>
+  </si>
+  <si>
+    <t>(ω + 1) conflicts</t>
   </si>
 </sst>
 </file>
@@ -196,14 +201,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,6 +227,4362 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k = ω</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Facebook!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Facebook!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B78-4A35-95D9-D30BC8AAEAF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k = ω + 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Facebook!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Facebook!$M$3:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1449426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>440</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B78-4A35-95D9-D30BC8AAEAF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524435912"/>
+        <c:axId val="524438536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524435912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Clique Size (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(G))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44696850824726764"/>
+              <c:y val="0.8640041686225568"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524438536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524438536"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Conflicts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524435912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39839372146641627"/>
+          <c:y val="0.92750990817601642"/>
+          <c:w val="0.27747743708845285"/>
+          <c:h val="5.5921017440320672E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>k = ω</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Facebook!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Facebook!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.90625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.26562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.296875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9B6-466E-B102-91C9B52152D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>k = ω + 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Facebook!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Facebook!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.296900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.359375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4843799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>694.59400000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.09375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9B6-466E-B102-91C9B52152D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>igraph ω</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Facebook!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Facebook!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9B6-466E-B102-91C9B52152D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="524435912"/>
+        <c:axId val="524438536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="524435912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Clique Size (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(G))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44696850824726764"/>
+              <c:y val="0.8640041686225568"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524438536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="524438536"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524435912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39839372146641627"/>
+          <c:y val="0.92750990817601642"/>
+          <c:w val="0.27747743708845285"/>
+          <c:h val="5.5921017440320672E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k vs time'!$A$1:$A$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k vs time'!$B$1:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.140625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.953125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.42188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1718799999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26.531199999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18.390599999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.9375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.09375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.9375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.46875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.34375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.546900000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.406199999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>18.531199999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.15625</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.6875E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.65625</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.953125</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.8125</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>27.078099999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18.265599999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.859400000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.984400000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14.9375</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11.4375</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>11.5625</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.2656200000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>15.234400000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.359400000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11.578099999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>11.5938</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.015599999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16.718800000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.5938</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11.078099999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>11.2812</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>9.1718799999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.3906200000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.0468799999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9.15625</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.3125</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.2343799999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>8.34375</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>8.2343799999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>8.375</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>9.9375</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>10.3125</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>10.546900000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>9.5781200000000002</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>9.8906200000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6929-4DEE-82DD-3A3A99CE286C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="532835672"/>
+        <c:axId val="532833704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="532835672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" i="1"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532833704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="532833704"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532835672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="190" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="191" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6168691" cy="3845092"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEEED49-C50D-482A-84AB-510C800D0F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6168691" cy="3845092"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420CE12E-A6E7-4D54-930E-8909101CF287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="6156342" cy="3832441"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C71ADC4E-EE20-4098-A9E5-F0C821D560B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -531,57 +4895,64 @@
     <col min="4" max="4" width="10.06640625" customWidth="1"/>
     <col min="8" max="10" width="11.06640625" customWidth="1"/>
     <col min="11" max="11" width="13.265625" customWidth="1"/>
+    <col min="13" max="13" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -615,8 +4986,14 @@
       <c r="K3">
         <v>0.59375</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L3">
+        <v>761</v>
+      </c>
+      <c r="M3">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -650,8 +5027,14 @@
       <c r="K4">
         <v>29.296900000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L4">
+        <v>22114</v>
+      </c>
+      <c r="M4">
+        <v>130043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -685,8 +5068,14 @@
       <c r="K5">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L5">
+        <v>2695</v>
+      </c>
+      <c r="M5">
+        <v>7552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -720,8 +5109,14 @@
       <c r="K6">
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L6">
+        <v>665</v>
+      </c>
+      <c r="M6">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -755,8 +5150,14 @@
       <c r="K7">
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L7">
+        <v>115</v>
+      </c>
+      <c r="M7">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -790,8 +5191,14 @@
       <c r="K8">
         <v>1.5625E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -825,8 +5232,14 @@
       <c r="K9">
         <v>7.4843799999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L9">
+        <v>3619</v>
+      </c>
+      <c r="M9">
+        <v>49105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -845,11 +5258,15 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
       <c r="H10">
         <v>68</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>32</v>
+      <c r="I10" s="3">
+        <f>30*60</f>
+        <v>1800</v>
       </c>
       <c r="J10">
         <v>12.8125</v>
@@ -857,11 +5274,14 @@
       <c r="K10">
         <v>694.59400000000005</v>
       </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L10">
+        <v>80630</v>
+      </c>
+      <c r="M10">
+        <v>1449426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -895,8 +5315,14 @@
       <c r="K11">
         <v>2.09375</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L11">
+        <v>656</v>
+      </c>
+      <c r="M11">
+        <v>22204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -930,8 +5356,14 @@
       <c r="K12">
         <v>1.5625E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="L12">
+        <v>31</v>
+      </c>
+      <c r="M12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -965,8 +5397,9 @@
       <c r="K13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1001,7 +5434,7 @@
         <v>39.015599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +5469,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1279,6 +5712,18 @@
       </c>
       <c r="K22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <f>AVERAGE(B24:C24)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1289,4 +5734,1227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>AVERAGEIF(A$1:A$135,37,B$1:B$135)</f>
+        <v>2.2552099999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGEIF(A$1:A$135,38,B$1:B$135)</f>
+        <v>27.385400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0.59375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>4.625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1.42188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>2.1718799999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>26.531199999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>18.390599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>17.9375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>26</v>
+      </c>
+      <c r="B66">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="B67">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>29</v>
+      </c>
+      <c r="B69">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>30</v>
+      </c>
+      <c r="B70">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>31</v>
+      </c>
+      <c r="B71">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>32</v>
+      </c>
+      <c r="B72">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>33</v>
+      </c>
+      <c r="B73">
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>5.9375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>36</v>
+      </c>
+      <c r="B76">
+        <v>1.46875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>37</v>
+      </c>
+      <c r="B77">
+        <v>2.34375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78">
+        <v>28.546900000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <v>19.406199999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>40</v>
+      </c>
+      <c r="B80">
+        <v>18.531199999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>11</v>
+      </c>
+      <c r="B91">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>12</v>
+      </c>
+      <c r="B92">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>13</v>
+      </c>
+      <c r="B93">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>15</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>17</v>
+      </c>
+      <c r="B97">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>18</v>
+      </c>
+      <c r="B98">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>19</v>
+      </c>
+      <c r="B99">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>20</v>
+      </c>
+      <c r="B100">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>21</v>
+      </c>
+      <c r="B101">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>23</v>
+      </c>
+      <c r="B103">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>24</v>
+      </c>
+      <c r="B104">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>25</v>
+      </c>
+      <c r="B105">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>26</v>
+      </c>
+      <c r="B106">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>28</v>
+      </c>
+      <c r="B108">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>29</v>
+      </c>
+      <c r="B109">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>30</v>
+      </c>
+      <c r="B110">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>31</v>
+      </c>
+      <c r="B111">
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>32</v>
+      </c>
+      <c r="B112">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>33</v>
+      </c>
+      <c r="B113">
+        <v>0.953125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>34</v>
+      </c>
+      <c r="B114">
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>35</v>
+      </c>
+      <c r="B115">
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>36</v>
+      </c>
+      <c r="B116">
+        <v>1.4375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>37</v>
+      </c>
+      <c r="B117">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>38</v>
+      </c>
+      <c r="B118">
+        <v>27.078099999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>39</v>
+      </c>
+      <c r="B119">
+        <v>18.265599999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>40</v>
+      </c>
+      <c r="B120">
+        <v>18.859400000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>41</v>
+      </c>
+      <c r="B121">
+        <v>14.984400000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>42</v>
+      </c>
+      <c r="B122">
+        <v>14.9375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>43</v>
+      </c>
+      <c r="B123">
+        <v>11.4375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>44</v>
+      </c>
+      <c r="B124">
+        <v>11.5625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>45</v>
+      </c>
+      <c r="B125">
+        <v>9.2656200000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126">
+        <v>15.234400000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>42</v>
+      </c>
+      <c r="B127">
+        <v>14.359400000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>43</v>
+      </c>
+      <c r="B128">
+        <v>11.578099999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>44</v>
+      </c>
+      <c r="B129">
+        <v>11.5938</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>45</v>
+      </c>
+      <c r="B130">
+        <v>10.015599999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>41</v>
+      </c>
+      <c r="B131">
+        <v>16.718800000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>42</v>
+      </c>
+      <c r="B132">
+        <v>14.5938</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>43</v>
+      </c>
+      <c r="B133">
+        <v>11.078099999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>44</v>
+      </c>
+      <c r="B134">
+        <v>11.2812</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>45</v>
+      </c>
+      <c r="B135">
+        <v>9.1718799999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>46</v>
+      </c>
+      <c r="B136">
+        <v>9.3906200000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>46</v>
+      </c>
+      <c r="B137">
+        <v>9.0468799999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>46</v>
+      </c>
+      <c r="B138">
+        <v>9.625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>47</v>
+      </c>
+      <c r="B139">
+        <v>9.15625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>47</v>
+      </c>
+      <c r="B140">
+        <v>9.3125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>47</v>
+      </c>
+      <c r="B141">
+        <v>9.2343799999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>48</v>
+      </c>
+      <c r="B142">
+        <v>8.34375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>48</v>
+      </c>
+      <c r="B143">
+        <v>8.2343799999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>48</v>
+      </c>
+      <c r="B144">
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>49</v>
+      </c>
+      <c r="B145">
+        <v>9.9375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>49</v>
+      </c>
+      <c r="B146">
+        <v>10.3125</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>49</v>
+      </c>
+      <c r="B147">
+        <v>10.546900000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>50</v>
+      </c>
+      <c r="B148">
+        <v>9.5781200000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>50</v>
+      </c>
+      <c r="B149">
+        <v>9.8906200000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>50</v>
+      </c>
+      <c r="B150">
+        <v>9.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/datasets.xlsx
+++ b/doc/datasets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13658"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13658" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart3" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>(ω + 1) conflicts</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>literals</t>
   </si>
 </sst>
 </file>
@@ -4454,7 +4460,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="190" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
@@ -4882,10 +4888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4898,7 +4904,7 @@
     <col min="13" max="13" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
@@ -4911,7 +4917,7 @@
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4951,8 +4957,14 @@
       <c r="M2" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4992,8 +5004,18 @@
       <c r="M3">
         <v>7418</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <f>L3/J3</f>
+        <v>5411.5555555555557</v>
+      </c>
+      <c r="O3">
+        <v>2286</v>
+      </c>
+      <c r="P3" s="2">
+        <v>60199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5033,8 +5055,18 @@
       <c r="M4">
         <v>130043</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="0">L4/J4</f>
+        <v>4507.3121019108285</v>
+      </c>
+      <c r="O4">
+        <v>7193</v>
+      </c>
+      <c r="P4">
+        <v>531836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5074,8 +5106,18 @@
       <c r="M5">
         <v>7552</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>19164.444444444445</v>
+      </c>
+      <c r="O5">
+        <v>1559</v>
+      </c>
+      <c r="P5">
+        <v>26819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5115,8 +5157,18 @@
       <c r="M6">
         <v>2521</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>14186.666666666666</v>
+      </c>
+      <c r="O6">
+        <v>1041</v>
+      </c>
+      <c r="P6">
+        <v>12909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5156,8 +5208,18 @@
       <c r="M7">
         <v>2908</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3680</v>
+      </c>
+      <c r="O7">
+        <v>1154</v>
+      </c>
+      <c r="P7">
+        <v>16091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5197,8 +5259,18 @@
       <c r="M8">
         <v>352</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8">
+        <v>424</v>
+      </c>
+      <c r="P8">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5238,8 +5310,18 @@
       <c r="M9">
         <v>49105</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>2859.4680867875036</v>
+      </c>
+      <c r="O9">
+        <v>5457</v>
+      </c>
+      <c r="P9">
+        <v>312068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5280,8 +5362,18 @@
       <c r="M10">
         <v>1449426</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>6293.0731707317073</v>
+      </c>
+      <c r="O10">
+        <v>5220</v>
+      </c>
+      <c r="P10">
+        <v>265496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5321,8 +5413,18 @@
       <c r="M11">
         <v>22204</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2209.6842105263158</v>
+      </c>
+      <c r="O11">
+        <v>3644</v>
+      </c>
+      <c r="P11">
+        <v>149737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5362,8 +5464,18 @@
       <c r="M12">
         <v>440</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="O12">
+        <v>355</v>
+      </c>
+      <c r="P12">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -5399,7 +5511,7 @@
       </c>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5434,7 +5546,7 @@
         <v>39.015599999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5469,7 +5581,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
